--- a/sources/Translations.xlsx
+++ b/sources/Translations.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="570">
   <si>
     <t>Перейти к оплате</t>
   </si>
@@ -420,9 +420,6 @@
     <t>Ваше сообщение</t>
   </si>
   <si>
-    <t>STORM использует данный адрес эл.почты лишь для отсылки вашего списка предпочтений</t>
-  </si>
-  <si>
     <t>Отправить список предпочтений</t>
   </si>
   <si>
@@ -985,6 +982,750 @@
   </si>
   <si>
     <t>LATVIAN</t>
+  </si>
+  <si>
+    <t>Pievienot velmēm</t>
+  </si>
+  <si>
+    <t>Papildus informācija</t>
+  </si>
+  <si>
+    <t>Jaunumi</t>
+  </si>
+  <si>
+    <t>Atgriezties</t>
+  </si>
+  <si>
+    <t>Atgriezties pie rezultātiem</t>
+  </si>
+  <si>
+    <t>Nopirkt</t>
+  </si>
+  <si>
+    <t>Nopirkt daudzumu</t>
+  </si>
+  <si>
+    <t>vārda</t>
+  </si>
+  <si>
+    <t>popularitātes</t>
+  </si>
+  <si>
+    <t>cenas</t>
+  </si>
+  <si>
+    <t>Удалить</t>
+  </si>
+  <si>
+    <t>Dzēst</t>
+  </si>
+  <si>
+    <t>Pirkumu grozs</t>
+  </si>
+  <si>
+    <t>Jūsu grozs ir tukšs</t>
+  </si>
+  <si>
+    <t>Noformēt pasūtījumu</t>
+  </si>
+  <si>
+    <t>Pilsēta</t>
+  </si>
+  <si>
+    <t>Nospiediet</t>
+  </si>
+  <si>
+    <t>Krāsa</t>
+  </si>
+  <si>
+    <t>Pieejamas krāsas</t>
+  </si>
+  <si>
+    <t>Turpināt</t>
+  </si>
+  <si>
+    <t>Turpinat iepirkties</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Valsts</t>
+  </si>
+  <si>
+    <t>Atlaižu kupons</t>
+  </si>
+  <si>
+    <t>Piegādes adrese</t>
+  </si>
+  <si>
+    <t>Piegādes un apmaksas veids</t>
+  </si>
+  <si>
+    <t>Piegādes veids</t>
+  </si>
+  <si>
+    <t>Rajons</t>
+  </si>
+  <si>
+    <t>El. Pasta adrese</t>
+  </si>
+  <si>
+    <t>Dzīvokis</t>
+  </si>
+  <si>
+    <t>В начало</t>
+  </si>
+  <si>
+    <t>Bezmaksas piegāde ar kurjeru</t>
+  </si>
+  <si>
+    <t>Uz sākumu</t>
+  </si>
+  <si>
+    <t>Mājas numurs</t>
+  </si>
+  <si>
+    <t>gab. pieejami</t>
+  </si>
+  <si>
+    <t>Ielogoties</t>
+  </si>
+  <si>
+    <t>Iziet</t>
+  </si>
+  <si>
+    <t>Mans konts</t>
+  </si>
+  <si>
+    <t>Mani pasūtījumi</t>
+  </si>
+  <si>
+    <t>Vārds</t>
+  </si>
+  <si>
+    <t>Jauns</t>
+  </si>
+  <si>
+    <t>Jans pasūtījums</t>
+  </si>
+  <si>
+    <t>Jaunumu arhīvs</t>
+  </si>
+  <si>
+    <t>nākamā</t>
+  </si>
+  <si>
+    <t>Nav pieejams</t>
+  </si>
+  <si>
+    <t>Piezīmes</t>
+  </si>
+  <si>
+    <t>Paziņot par pieejamību</t>
+  </si>
+  <si>
+    <t>Apmaksa tiešsaitē</t>
+  </si>
+  <si>
+    <t>Tikai</t>
+  </si>
+  <si>
+    <t>Jūsu pasūtījums ir pieņemts</t>
+  </si>
+  <si>
+    <t>Pasūtījuma pārskats</t>
+  </si>
+  <si>
+    <t>Lapas</t>
+  </si>
+  <si>
+    <t>Apmaksāts</t>
+  </si>
+  <si>
+    <t>Maksātāja dati</t>
+  </si>
+  <si>
+    <t>Apmaksas veids</t>
+  </si>
+  <si>
+    <t>Telefons</t>
+  </si>
+  <si>
+    <t>Pasta indekss</t>
+  </si>
+  <si>
+    <t>iepriekšēja</t>
+  </si>
+  <si>
+    <t>Produkcija</t>
+  </si>
+  <si>
+    <t>Šaja kategorijā preču nav</t>
+  </si>
+  <si>
+    <t>Preču vertība</t>
+  </si>
+  <si>
+    <t>Daudzums</t>
+  </si>
+  <si>
+    <t>Skatīties specifikāciju</t>
+  </si>
+  <si>
+    <t>Atjaunot</t>
+  </si>
+  <si>
+    <t>Piereģistrēties</t>
+  </si>
+  <si>
+    <t>Izpārdošana</t>
+  </si>
+  <si>
+    <t>Meklēšanas rezultāti</t>
+  </si>
+  <si>
+    <t>izvēlēties apskatei/pirkumam</t>
+  </si>
+  <si>
+    <t>Nosūtīt</t>
+  </si>
+  <si>
+    <t>Nosūtīt velmju sarakstu draugam</t>
+  </si>
+  <si>
+    <t>Piegāde</t>
+  </si>
+  <si>
+    <t>Piegādes informācija</t>
+  </si>
+  <si>
+    <t>Lapas karte</t>
+  </si>
+  <si>
+    <t>Izmērs</t>
+  </si>
+  <si>
+    <t>Pieejamie izmēri</t>
+  </si>
+  <si>
+    <t>Specifikācija</t>
+  </si>
+  <si>
+    <t>Solis</t>
+  </si>
+  <si>
+    <t>STORM использует данный адрес эл.почты только для отсылки вашего списка предпочтений</t>
+  </si>
+  <si>
+    <t>Iela</t>
+  </si>
+  <si>
+    <t>Apstiprināt</t>
+  </si>
+  <si>
+    <t>Uzvārds</t>
+  </si>
+  <si>
+    <t>lai izmainīt</t>
+  </si>
+  <si>
+    <t>Pasūtījuma kopēja summa</t>
+  </si>
+  <si>
+    <t>parādīt visus</t>
+  </si>
+  <si>
+    <t>parādīt lapās</t>
+  </si>
+  <si>
+    <t>Apmaksa tiek gaidīta</t>
+  </si>
+  <si>
+    <t>Vēlmju saraksts</t>
+  </si>
+  <si>
+    <t>Jūsu vēlmju sarakstā preču nav</t>
+  </si>
+  <si>
+    <t>У вас еще нет заказов</t>
+  </si>
+  <si>
+    <t>Jums vel nav pasūtījumu</t>
+  </si>
+  <si>
+    <t>Jūsu dati</t>
+  </si>
+  <si>
+    <t>Piegādes adrese sakrīt ar maksājuma adresi</t>
+  </si>
+  <si>
+    <t>Akcija</t>
+  </si>
+  <si>
+    <t>Bankas pārskaitījums</t>
+  </si>
+  <si>
+    <t>Rēķins tiks nosūtīts jums pa el. Pastu</t>
+  </si>
+  <si>
+    <t>Jūsu ziņojums</t>
+  </si>
+  <si>
+    <t>Ievadiet el. pasta adreses, vienu rindā</t>
+  </si>
+  <si>
+    <t>Pavisam apmaksai</t>
+  </si>
+  <si>
+    <t>Pec jūsu meklējuma nekas nav atrast. Mēģiniet izvēlēties citu kritēriju.</t>
+  </si>
+  <si>
+    <t>Informācija par pasūtījumu</t>
+  </si>
+  <si>
+    <t>Meklēt</t>
+  </si>
+  <si>
+    <t>Minimālais meklēšanas burtu skaits ir 3.</t>
+  </si>
+  <si>
+    <t>Kad šī prece būs mums noliktavā, jūs saņemsiet paziņojumu.</t>
+  </si>
+  <si>
+    <t>Nopirkt izvēlētos</t>
+  </si>
+  <si>
+    <t>Atlaizū kuponi un dāvanu sertifikāti</t>
+  </si>
+  <si>
+    <t>Jūsu pasūtījuma numurs</t>
+  </si>
+  <si>
+    <t>Skatīties bildes</t>
+  </si>
+  <si>
+    <t>Atlasīt pēc</t>
+  </si>
+  <si>
+    <t>Saglabājiet to papildus informācijas saņemšanai</t>
+  </si>
+  <si>
+    <t>Pavisam grozā</t>
+  </si>
+  <si>
+    <t>Vērtība bez PVN</t>
+  </si>
+  <si>
+    <t>Length of ' + n + ' must be between '+min+' and '+max+'." =&gt; "Длинна ' + n + ' должна быть не меньше '+min+' и не более '+max+' символов.",</t>
+  </si>
+  <si>
+    <t>Not visited</t>
+  </si>
+  <si>
+    <t>Не входил</t>
+  </si>
+  <si>
+    <t>Newsletters</t>
+  </si>
+  <si>
+    <t>Хочу получать новости</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Возраст</t>
+  </si>
+  <si>
+    <t>Admin panel</t>
+  </si>
+  <si>
+    <t>Панель администратора</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Регистрация</t>
+  </si>
+  <si>
+    <t>Вход</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Логин</t>
+  </si>
+  <si>
+    <t>username or email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>Remember me next time</t>
+  </si>
+  <si>
+    <t>Запомнить меня</t>
+  </si>
+  <si>
+    <t>Username is incorrect.</t>
+  </si>
+  <si>
+    <t>Пользователь с таким именем не зарегистрирован.</t>
+  </si>
+  <si>
+    <t>Email is incorrect.</t>
+  </si>
+  <si>
+    <t>Пользователь с таким электроным адресом не зарегистрирован.</t>
+  </si>
+  <si>
+    <t>This user's name already exists.</t>
+  </si>
+  <si>
+    <t>Пользователь с таким именем уже существует.</t>
+  </si>
+  <si>
+    <t>This user's email address already exists.</t>
+  </si>
+  <si>
+    <t>Пользователь с таким электронным адресом уже существует.</t>
+  </si>
+  <si>
+    <t>You registered from {site_name}</t>
+  </si>
+  <si>
+    <t>Вы зарегистрировались на сайте {site_name}</t>
+  </si>
+  <si>
+    <t>Please activate you account go to {activation_url}</t>
+  </si>
+  <si>
+    <t>Для активации аккаунта пожалуйста перейдите по следующей ссылке {activation_url}</t>
+  </si>
+  <si>
+    <t>You account is not activated.</t>
+  </si>
+  <si>
+    <t>Ваш аккаунт не активирован.</t>
+  </si>
+  <si>
+    <t>You account is blocked.</t>
+  </si>
+  <si>
+    <t>Ваш аккаунт заблокирован.</t>
+  </si>
+  <si>
+    <t>Password is incorrect.</t>
+  </si>
+  <si>
+    <t>Неверный пароль.</t>
+  </si>
+  <si>
+    <t>Электронная почта</t>
+  </si>
+  <si>
+    <t>Verification Code</t>
+  </si>
+  <si>
+    <t>Проверочный код</t>
+  </si>
+  <si>
+    <t>Retype Password</t>
+  </si>
+  <si>
+    <t>Повторите пароль</t>
+  </si>
+  <si>
+    <t>Retype Password is incorrect.</t>
+  </si>
+  <si>
+    <t>Пароли не совпадают.</t>
+  </si>
+  <si>
+    <t>Incorrect password (minimal length 4 symbols).</t>
+  </si>
+  <si>
+    <t>Минимальная длина пароля 4 символа.</t>
+  </si>
+  <si>
+    <t>Incorrect username (length between 3 and 20 characters).</t>
+  </si>
+  <si>
+    <t>Длина имени пользователя от 3 до 20 символов.</t>
+  </si>
+  <si>
+    <t>Incorrect symbols (A-z0-9).</t>
+  </si>
+  <si>
+    <t>В имени пользователя допускаются только латинские буквы и цифры.</t>
+  </si>
+  <si>
+    <t>Variable name may consist of a-z, 0-9, underscores, begin with a letter.</t>
+  </si>
+  <si>
+    <t>В название переменной допускаются только латинские буквы, цифры и символ подчеркивания.</t>
+  </si>
+  <si>
+    <t>Please enter the letters as they are shown in the image above.</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите буквы, показанные на картинке выше.</t>
+  </si>
+  <si>
+    <t>Letters are not case-sensitive.</t>
+  </si>
+  <si>
+    <t>Регистр значение не имеет.</t>
+  </si>
+  <si>
+    <t>Minimal password length 4 symbols.</t>
+  </si>
+  <si>
+    <t>Lost Password?</t>
+  </si>
+  <si>
+    <t>Забыли пароль?</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Профиль</t>
+  </si>
+  <si>
+    <t>activation key</t>
+  </si>
+  <si>
+    <t>Ключ активации</t>
+  </si>
+  <si>
+    <t>User activation</t>
+  </si>
+  <si>
+    <t>Активация пользователя</t>
+  </si>
+  <si>
+    <t>You account is active.</t>
+  </si>
+  <si>
+    <t>Ваша учетная запись уже активирована.</t>
+  </si>
+  <si>
+    <t>You account is activated.</t>
+  </si>
+  <si>
+    <t>Ваша учетная запись активирована.</t>
+  </si>
+  <si>
+    <t>Incorrect activation URL.</t>
+  </si>
+  <si>
+    <t>Неправильная ссылка активации учетной записи.</t>
+  </si>
+  <si>
+    <t>Registration date</t>
+  </si>
+  <si>
+    <t>Дата регистрации</t>
+  </si>
+  <si>
+    <t>Last visit</t>
+  </si>
+  <si>
+    <t>Последний визит</t>
+  </si>
+  <si>
+    <t>Superuser</t>
+  </si>
+  <si>
+    <t>Супер пользователь</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Show all</t>
+  </si>
+  <si>
+    <t>Показать все</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Сохранить</t>
+  </si>
+  <si>
+    <t>Отмена</t>
+  </si>
+  <si>
+    <t>New password is saved.</t>
+  </si>
+  <si>
+    <t>Новый пароль сохранен.</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Изменить пароль</t>
+  </si>
+  <si>
+    <t>Your profile</t>
+  </si>
+  <si>
+    <t>Ваш профиль</t>
+  </si>
+  <si>
+    <t>Thank you for your registration. Please check your email or login.</t>
+  </si>
+  <si>
+    <t>Регистрация завершена. Пожалуйста проверьте свою электронную почту или выполните вход.</t>
+  </si>
+  <si>
+    <t>Thank you for your registration. Please check your email.</t>
+  </si>
+  <si>
+    <t>Регистрация завершена. Пожалуйста проверьте свою электронную почту для подтверждения регистрации.</t>
+  </si>
+  <si>
+    <t>Please check your email. An instructions was sent to your email address.</t>
+  </si>
+  <si>
+    <t>На Ваш адрес электронной почты было отправлено письмо с инструкциями.</t>
+  </si>
+  <si>
+    <t>Thank you for your registration. Please {{login}}.</t>
+  </si>
+  <si>
+    <t>Регистрация завершена. {{login}}.</t>
+  </si>
+  <si>
+    <t>Thank you for your registration. Contact Admin to activate your account.</t>
+  </si>
+  <si>
+    <t>Регистрация завершена. Пожалуйста свяжитесь с администрацией сайта для активации аккаунта.</t>
+  </si>
+  <si>
+    <t>Restore</t>
+  </si>
+  <si>
+    <t>Восстановить</t>
+  </si>
+  <si>
+    <t>Please enter your login or email addres.</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите Ваш логин или адрес электронной почты.</t>
+  </si>
+  <si>
+    <t>Incorrect recovery link.</t>
+  </si>
+  <si>
+    <t>Неправильная ссылка востановления пароля.</t>
+  </si>
+  <si>
+    <t>Already exists.</t>
+  </si>
+  <si>
+    <t>Уже существует.</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Активирован</t>
+  </si>
+  <si>
+    <t>Banned</t>
+  </si>
+  <si>
+    <t>Заблокирован</t>
+  </si>
+  <si>
+    <t>Please fill out the following form with your login credentials:</t>
+  </si>
+  <si>
+    <t>Пожалуйста, заполните следующую форму с вашими Логин и паролем:</t>
+  </si>
+  <si>
+    <t>Fields with &lt;span class="required"&gt;*&lt;/span&gt; are required.</t>
+  </si>
+  <si>
+    <t>&lt;span class="required"&gt;*&lt;/span&gt; Обязательные поля.</t>
+  </si>
+  <si>
+    <t>List User</t>
+  </si>
+  <si>
+    <t>Список пользователей</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Редактировать</t>
+  </si>
+  <si>
+    <t>Edit profile</t>
+  </si>
+  <si>
+    <t>Редактирование профиля</t>
+  </si>
+  <si>
+    <t>Create User</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Добавить</t>
+  </si>
+  <si>
+    <t>Not active</t>
+  </si>
+  <si>
+    <t>Не активирован</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1075,11 +1816,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1088,6 +1858,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1391,11 +2170,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,374 +2184,457 @@
     <col min="3" max="3" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>242</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>244</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>246</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>247</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>248</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>249</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>250</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>251</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>254</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>257</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>268</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1781,102 +2643,124 @@
       <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>276</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>277</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>278</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="1"/>
     </row>
@@ -1885,36 +2769,44 @@
         <v>110</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>280</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C55" s="1"/>
+        <v>281</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C56" s="1"/>
+        <v>282</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -1928,9 +2820,11 @@
         <v>64</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>284</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -1946,194 +2840,236 @@
         <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C61" s="1"/>
+        <v>285</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C62" s="1"/>
+        <v>286</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>288</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C65" s="1"/>
+        <v>289</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C66" s="1"/>
+        <v>290</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C67" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>292</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C69" s="1"/>
+        <v>293</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C70" s="1"/>
+        <v>294</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C71" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C72" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C73" s="1"/>
+        <v>299</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C74" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C75" s="1"/>
+        <v>301</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C76" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C77" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C78" s="1"/>
+        <v>304</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C79" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C80" s="1"/>
+        <v>306</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C81" s="1"/>
+        <v>307</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>134</v>
+        <v>399</v>
       </c>
       <c r="C82" s="1"/>
     </row>
@@ -2142,134 +3078,168 @@
         <v>61</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>308</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C84" s="1"/>
+        <v>309</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C85" s="1"/>
+        <v>310</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C86" s="1"/>
+        <v>311</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C87" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C88" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C89" s="1"/>
+        <v>314</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C90" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C91" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C92" s="1"/>
+        <v>317</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C94" s="1"/>
+        <v>318</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
@@ -2283,7 +3253,9 @@
       <c r="B100" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
@@ -2304,14 +3276,18 @@
       <c r="B103" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
@@ -2325,7 +3301,9 @@
       <c r="B106" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="1"/>
+      <c r="C106" s="1" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
@@ -2339,49 +3317,63 @@
       <c r="B108" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C110" s="1"/>
+      <c r="C110" s="1" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C114" s="1"/>
+      <c r="C114" s="1" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
@@ -2402,7 +3394,9 @@
       <c r="B117" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
@@ -2428,7 +3422,7 @@
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C121" s="1"/>
     </row>
@@ -2514,40 +3508,745 @@
       <c r="B133" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C133" s="1"/>
+      <c r="C133" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="1"/>
+      <c r="C134" s="1" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C135" s="1"/>
+      <c r="C135" s="1" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C136" s="1"/>
+      <c r="C136" s="1" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C137" s="1"/>
+      <c r="C137" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C215" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A1:A247">
     <sortCondition ref="A1:A247"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A138:C139"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2568,462 +4267,462 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3049,7 +4748,7 @@
         <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3057,7 +4756,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3065,7 +4764,7 @@
         <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3073,7 +4772,7 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3081,7 +4780,7 @@
         <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3089,7 +4788,7 @@
         <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3097,7 +4796,7 @@
         <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3105,7 +4804,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3113,7 +4812,7 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3121,7 +4820,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3129,7 +4828,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3137,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3145,7 +4844,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3153,7 +4852,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3161,7 +4860,7 @@
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3169,7 +4868,7 @@
         <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3177,7 +4876,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3185,7 +4884,7 @@
         <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3193,7 +4892,7 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3201,7 +4900,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3209,7 +4908,7 @@
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3217,7 +4916,7 @@
         <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3225,7 +4924,7 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3233,7 +4932,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3241,7 +4940,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3249,7 +4948,7 @@
         <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3257,7 +4956,7 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3265,7 +4964,7 @@
         <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3273,7 +4972,7 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3281,7 +4980,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3289,15 +4988,15 @@
         <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" t="s">
         <v>260</v>
-      </c>
-      <c r="B32" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3305,15 +5004,15 @@
         <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" t="s">
         <v>263</v>
-      </c>
-      <c r="B34" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3321,7 +5020,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3329,7 +5028,7 @@
         <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3337,7 +5036,7 @@
         <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3345,7 +5044,7 @@
         <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3353,7 +5052,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3361,7 +5060,7 @@
         <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3369,7 +5068,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3377,7 +5076,7 @@
         <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3393,7 +5092,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3401,7 +5100,7 @@
         <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3409,7 +5108,7 @@
         <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3417,7 +5116,7 @@
         <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3425,7 +5124,7 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3433,7 +5132,7 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3441,7 +5140,7 @@
         <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3449,7 +5148,7 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3457,7 +5156,7 @@
         <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3465,7 +5164,7 @@
         <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3473,7 +5172,7 @@
         <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3481,7 +5180,7 @@
         <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3489,7 +5188,7 @@
         <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3497,7 +5196,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3505,7 +5204,7 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3521,7 +5220,7 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3529,7 +5228,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3537,7 +5236,7 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3545,7 +5244,7 @@
         <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3553,7 +5252,7 @@
         <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3561,7 +5260,7 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3569,7 +5268,7 @@
         <v>114</v>
       </c>
       <c r="B66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3577,7 +5276,7 @@
         <v>22</v>
       </c>
       <c r="B67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3585,7 +5284,7 @@
         <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3593,15 +5292,15 @@
         <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>295</v>
+      </c>
+      <c r="B70" t="s">
         <v>296</v>
-      </c>
-      <c r="B70" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,7 +5308,7 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3617,7 +5316,7 @@
         <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3625,7 +5324,7 @@
         <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3633,7 +5332,7 @@
         <v>131</v>
       </c>
       <c r="B74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3641,7 +5340,7 @@
         <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3649,7 +5348,7 @@
         <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3657,7 +5356,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3665,7 +5364,7 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,7 +5372,7 @@
         <v>118</v>
       </c>
       <c r="B79" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,7 +5380,7 @@
         <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3689,7 +5388,7 @@
         <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3697,7 +5396,7 @@
         <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +5404,7 @@
         <v>33</v>
       </c>
       <c r="B83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3713,7 +5412,7 @@
         <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +5420,7 @@
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3729,7 +5428,7 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3737,7 +5436,7 @@
         <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3745,7 +5444,7 @@
         <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,7 +5452,7 @@
         <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,7 +5460,7 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3769,7 +5468,7 @@
         <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3777,7 +5476,7 @@
         <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
